--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABDF/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.367099999999993</v>
+        <v>6.256799999999994</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.9663</v>
+        <v>-7.919200000000003</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.225599999999995</v>
+        <v>-7.196399999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.227799999999999</v>
+        <v>5.470299999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.767000000000001</v>
+        <v>-8.013899999999996</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3375</v>
+        <v>13.23119999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.7989</v>
+        <v>-22.722</v>
       </c>
       <c r="B12" t="n">
-        <v>5.391599999999999</v>
+        <v>5.416299999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.172500000000003</v>
+        <v>8.983000000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>12.81210000000001</v>
+        <v>13.23340000000001</v>
       </c>
     </row>
     <row r="15">
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.161399999999992</v>
+        <v>-8.111799999999993</v>
       </c>
       <c r="E19" t="n">
-        <v>13.55320000000001</v>
+        <v>13.47690000000001</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.566599999999997</v>
+        <v>-7.709300000000002</v>
       </c>
       <c r="E21" t="n">
-        <v>14.0758</v>
+        <v>13.8011</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.252800000000003</v>
+        <v>5.086500000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.763499999999996</v>
+        <v>-7.996799999999996</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
